--- a/Results/NEW_periods/Meta_analysis.xlsx
+++ b/Results/NEW_periods/Meta_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9024" tabRatio="634" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="treatment" sheetId="1" r:id="rId1"/>
@@ -17,23 +17,14 @@
     <sheet name="area_all" sheetId="3" r:id="rId3"/>
     <sheet name="diffusion_all" sheetId="4" r:id="rId4"/>
     <sheet name="tau_all" sheetId="5" r:id="rId5"/>
+    <sheet name="speed_all" sheetId="6" r:id="rId6"/>
+    <sheet name="combined" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.0" hidden="1">treatment!$P$2:$P$13</definedName>
     <definedName name="_xlchart.1" hidden="1">treatment!$Q$1</definedName>
     <definedName name="_xlchart.10" hidden="1">treatment!$U$2:$U$13</definedName>
-    <definedName name="_xlchart.11" hidden="1">treatment!$P$2:$P$13</definedName>
-    <definedName name="_xlchart.12" hidden="1">treatment!$Q$1</definedName>
-    <definedName name="_xlchart.13" hidden="1">treatment!$Q$2:$Q$13</definedName>
-    <definedName name="_xlchart.14" hidden="1">treatment!$R$1</definedName>
-    <definedName name="_xlchart.15" hidden="1">treatment!$R$2:$R$13</definedName>
-    <definedName name="_xlchart.16" hidden="1">treatment!$S$1</definedName>
-    <definedName name="_xlchart.17" hidden="1">treatment!$S$2:$S$13</definedName>
-    <definedName name="_xlchart.18" hidden="1">treatment!$T$1</definedName>
-    <definedName name="_xlchart.19" hidden="1">treatment!$T$2:$T$13</definedName>
     <definedName name="_xlchart.2" hidden="1">treatment!$Q$2:$Q$13</definedName>
-    <definedName name="_xlchart.20" hidden="1">treatment!$U$1</definedName>
-    <definedName name="_xlchart.21" hidden="1">treatment!$U$2:$U$13</definedName>
     <definedName name="_xlchart.3" hidden="1">treatment!$R$1</definedName>
     <definedName name="_xlchart.4" hidden="1">treatment!$R$2:$R$13</definedName>
     <definedName name="_xlchart.5" hidden="1">treatment!$S$1</definedName>
@@ -52,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="39">
   <si>
     <t>Breeding</t>
   </si>
@@ -143,6 +134,33 @@
   <si>
     <t>Tau position</t>
   </si>
+  <si>
+    <t>Added speed</t>
+  </si>
+  <si>
+    <t>Speed meta analysis</t>
+  </si>
+  <si>
+    <t>mean (km/day)</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>km/day</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Diffusion</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,13 +215,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView topLeftCell="H24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2646,7 +2671,7 @@
         <v>0.73451357049111132</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>20</v>
       </c>
@@ -2665,8 +2690,52 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>B57</f>
+        <v>3.6539547369029681</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34" si="12">C57</f>
+        <v>4.5651238235518354</v>
+      </c>
+      <c r="S34">
+        <f>D57</f>
+        <v>5.6326695213435807</v>
+      </c>
+      <c r="T34" t="s">
+        <v>23</v>
+      </c>
+      <c r="U34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2691,16 +2760,58 @@
       <c r="J35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35">
+        <f>B64</f>
+        <v>2.9713208127944499</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:S35" si="13">C64</f>
+        <v>3.753048655222063</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="13"/>
+        <v>4.6766960355313394</v>
+      </c>
+      <c r="T35" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36">
+        <f>B71</f>
+        <v>3.187781843134013</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:S36" si="14">C71</f>
+        <v>3.7140533193682539</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="14"/>
+        <v>4.3010811318398394</v>
+      </c>
+      <c r="T36" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2725,8 +2836,29 @@
       <c r="J37">
         <v>1.6156931909632299</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>control!B57</f>
+        <v>3.9053567560470621</v>
+      </c>
+      <c r="R37">
+        <f>control!C57</f>
+        <v>4.8761029985807944</v>
+      </c>
+      <c r="S37">
+        <f>control!D57</f>
+        <v>6.0131077723401081</v>
+      </c>
+      <c r="T37" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2751,8 +2883,29 @@
       <c r="J38">
         <v>2.529850437886088</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38">
+        <f>control!B64</f>
+        <v>3.5279196661446002</v>
+      </c>
+      <c r="R38">
+        <f>control!C64</f>
+        <v>4.2379337982817953</v>
+      </c>
+      <c r="S38">
+        <f>control!D64</f>
+        <v>5.0451646429022077</v>
+      </c>
+      <c r="T38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2777,16 +2930,58 @@
       <c r="J39">
         <v>1.624547477481751</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39">
+        <f>control!B71</f>
+        <v>3.8906212977649268</v>
+      </c>
+      <c r="R39">
+        <f>control!C71</f>
+        <v>4.5026463341560907</v>
+      </c>
+      <c r="S39">
+        <f>control!D71</f>
+        <v>5.1802880575557886</v>
+      </c>
+      <c r="T39" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>H57</f>
+        <v>3.625695495129722</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40:S40" si="15">I57</f>
+        <v>4.3673834546043793</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="15"/>
+        <v>5.2129680182264417</v>
+      </c>
+      <c r="T40" t="s">
+        <v>23</v>
+      </c>
+      <c r="U40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2811,8 +3006,29 @@
       <c r="J41">
         <v>47.625450717317591</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41">
+        <f>H64</f>
+        <v>3.755598496599259</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:S41" si="16">I64</f>
+        <v>4.2794692458055676</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="16"/>
+        <v>4.8542555012864144</v>
+      </c>
+      <c r="T41" t="s">
+        <v>23</v>
+      </c>
+      <c r="U41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2837,8 +3053,29 @@
       <c r="J42">
         <v>0.83016162989452214</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <f>H71</f>
+        <v>4.1124313766850262</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:S42" si="17">I71</f>
+        <v>4.7609850396281344</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="17"/>
+        <v>5.4804491124303683</v>
+      </c>
+      <c r="T42" t="s">
+        <v>23</v>
+      </c>
+      <c r="U42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2863,16 +3100,58 @@
       <c r="J43">
         <v>0.92514925322899455</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f>control!H57</f>
+        <v>3.3628562356916709</v>
+      </c>
+      <c r="R43">
+        <f>control!I57</f>
+        <v>3.806741249265726</v>
+      </c>
+      <c r="S43">
+        <f>control!J57</f>
+        <v>4.2900080971594914</v>
+      </c>
+      <c r="T43" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44">
+        <f>control!H64</f>
+        <v>4.0732022763899103</v>
+      </c>
+      <c r="R44">
+        <f>control!I64</f>
+        <v>4.5295125086354053</v>
+      </c>
+      <c r="S44">
+        <f>control!J64</f>
+        <v>5.0206652452180141</v>
+      </c>
+      <c r="T44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2897,8 +3176,29 @@
       <c r="J45">
         <v>12.17825156070624</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45">
+        <f>control!H71</f>
+        <v>3.633749656974639</v>
+      </c>
+      <c r="R45">
+        <f>control!I71</f>
+        <v>4.2804443810183432</v>
+      </c>
+      <c r="S45">
+        <f>control!J71</f>
+        <v>5.0053758518371527</v>
+      </c>
+      <c r="T45" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +3224,7 @@
         <v>1.0917087811195889</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2948,6 +3248,338 @@
       </c>
       <c r="J47">
         <v>1.0633370013170831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57">
+        <v>3.6539547369029681</v>
+      </c>
+      <c r="C57">
+        <v>4.5651238235518354</v>
+      </c>
+      <c r="D57">
+        <v>5.6326695213435807</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57">
+        <v>3.625695495129722</v>
+      </c>
+      <c r="I57">
+        <v>4.3673834546043793</v>
+      </c>
+      <c r="J57">
+        <v>5.2129680182264417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>2.9276197976021309E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.1069301514646178</v>
+      </c>
+      <c r="D58">
+        <v>0.2339562486043259</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>4.546823585390327E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.1200519960437265</v>
+      </c>
+      <c r="J58">
+        <v>0.2302092668221222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0.1763395690530721</v>
+      </c>
+      <c r="C59">
+        <v>0.33700979876461928</v>
+      </c>
+      <c r="D59">
+        <v>0.49849380089438039</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>0.21741205842578051</v>
+      </c>
+      <c r="I59">
+        <v>0.35327610905164047</v>
+      </c>
+      <c r="J59">
+        <v>0.48920510084011398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>2.9713208127944499</v>
+      </c>
+      <c r="C64">
+        <v>3.753048655222063</v>
+      </c>
+      <c r="D64">
+        <v>4.6766960355313394</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>3.755598496599259</v>
+      </c>
+      <c r="I64">
+        <v>4.2794692458055676</v>
+      </c>
+      <c r="J64">
+        <v>4.8542555012864144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>3.3019887684232627E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.1193087915423664</v>
+      </c>
+      <c r="D65">
+        <v>0.26000450759435612</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>3.0440584764552331E-2</v>
+      </c>
+      <c r="I65">
+        <v>7.2047414067775595E-2</v>
+      </c>
+      <c r="J65">
+        <v>0.13126863435524561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>0.18720598598923799</v>
+      </c>
+      <c r="C66">
+        <v>0.355850974056521</v>
+      </c>
+      <c r="D66">
+        <v>0.52531811127682559</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>0.1772921414248258</v>
+      </c>
+      <c r="I66">
+        <v>0.27275466615844918</v>
+      </c>
+      <c r="J66">
+        <v>0.36816582592725922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>3.187781843134013</v>
+      </c>
+      <c r="C71">
+        <v>3.7140533193682539</v>
+      </c>
+      <c r="D71">
+        <v>4.3010811318398394</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <v>4.1124313766850262</v>
+      </c>
+      <c r="I71">
+        <v>4.7609850396281344</v>
+      </c>
+      <c r="J71">
+        <v>5.4804491124303683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>1.361039429577891E-2</v>
+      </c>
+      <c r="C72">
+        <v>5.0528414646472883E-2</v>
+      </c>
+      <c r="D72">
+        <v>0.1112129518881235</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <v>3.5421174341835629E-2</v>
+      </c>
+      <c r="I72">
+        <v>8.5165192422369598E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.1563522747651325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0.120301390926437</v>
+      </c>
+      <c r="C73">
+        <v>0.23179450238873131</v>
+      </c>
+      <c r="D73">
+        <v>0.34388479940871752</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>0.19133796628560901</v>
+      </c>
+      <c r="I73">
+        <v>0.2966885197628259</v>
+      </c>
+      <c r="J73">
+        <v>0.40199604272399148</v>
       </c>
     </row>
   </sheetData>
@@ -2958,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3882,6 +4514,338 @@
         <v>0.54329174091017551</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57">
+        <v>3.9053567560470621</v>
+      </c>
+      <c r="C57">
+        <v>4.8761029985807944</v>
+      </c>
+      <c r="D57">
+        <v>6.0131077723401081</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57">
+        <v>3.3628562356916709</v>
+      </c>
+      <c r="I57">
+        <v>3.806741249265726</v>
+      </c>
+      <c r="J57">
+        <v>4.2900080971594914</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>1.3204857725688281E-2</v>
+      </c>
+      <c r="C58">
+        <v>7.1075663596161687E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.17668247932648171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>2.0988956572730508E-2</v>
+      </c>
+      <c r="I58">
+        <v>5.7880618668538802E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.1131540085843296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0.12004680710975769</v>
+      </c>
+      <c r="C59">
+        <v>0.27851219242026642</v>
+      </c>
+      <c r="D59">
+        <v>0.43911724487076681</v>
+      </c>
+      <c r="G59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>0.1479196194664224</v>
+      </c>
+      <c r="I59">
+        <v>0.2456387839265089</v>
+      </c>
+      <c r="J59">
+        <v>0.34345142951307522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>3.5279196661446002</v>
+      </c>
+      <c r="C64">
+        <v>4.2379337982817953</v>
+      </c>
+      <c r="D64">
+        <v>5.0451646429022077</v>
+      </c>
+      <c r="G64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>4.0732022763899103</v>
+      </c>
+      <c r="I64">
+        <v>4.5295125086354053</v>
+      </c>
+      <c r="J64">
+        <v>5.0206652452180141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>5.2678922846476012E-3</v>
+      </c>
+      <c r="C65">
+        <v>3.8046431189534137E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.10253322848680731</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>1.5280475533914919E-2</v>
+      </c>
+      <c r="I65">
+        <v>4.1384289297240182E-2</v>
+      </c>
+      <c r="J65">
+        <v>8.0263666614002374E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>7.6618698139817351E-2</v>
+      </c>
+      <c r="C66">
+        <v>0.2059080321739013</v>
+      </c>
+      <c r="D66">
+        <v>0.33802485994746861</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66">
+        <v>0.12613862641576601</v>
+      </c>
+      <c r="I66">
+        <v>0.20758569059342399</v>
+      </c>
+      <c r="J66">
+        <v>0.28909405457437642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>3.8906212977649268</v>
+      </c>
+      <c r="C71">
+        <v>4.5026463341560907</v>
+      </c>
+      <c r="D71">
+        <v>5.1802880575557886</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71">
+        <v>3.633749656974639</v>
+      </c>
+      <c r="I71">
+        <v>4.2804443810183432</v>
+      </c>
+      <c r="J71">
+        <v>5.0053758518371527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>2.9882453157738359E-3</v>
+      </c>
+      <c r="C72">
+        <v>2.368412071564556E-2</v>
+      </c>
+      <c r="D72">
+        <v>6.5327710682800424E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <v>2.156303552970272E-2</v>
+      </c>
+      <c r="I72">
+        <v>7.1739013264425874E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.15152613222918501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>5.789683738708705E-2</v>
+      </c>
+      <c r="C73">
+        <v>0.1629954008527747</v>
+      </c>
+      <c r="D73">
+        <v>0.27070447614533272</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73">
+        <v>0.15085841161350669</v>
+      </c>
+      <c r="I73">
+        <v>0.27516442250420908</v>
+      </c>
+      <c r="J73">
+        <v>0.39990639618615481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3892,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4169,7 +5133,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4446,7 +5410,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4715,4 +5679,1416 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.6539547369029681</v>
+      </c>
+      <c r="C2">
+        <v>4.5651238235518354</v>
+      </c>
+      <c r="D2">
+        <v>5.6326695213435807</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2.9713208127944499</v>
+      </c>
+      <c r="C3">
+        <v>3.753048655222063</v>
+      </c>
+      <c r="D3">
+        <v>4.6766960355313394</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3.187781843134013</v>
+      </c>
+      <c r="C4">
+        <v>3.7140533193682539</v>
+      </c>
+      <c r="D4">
+        <v>4.3010811318398394</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3.9053567560470621</v>
+      </c>
+      <c r="C5">
+        <v>4.8761029985807944</v>
+      </c>
+      <c r="D5">
+        <v>6.0131077723401081</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>3.5279196661446002</v>
+      </c>
+      <c r="C6">
+        <v>4.2379337982817953</v>
+      </c>
+      <c r="D6">
+        <v>5.0451646429022077</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>3.8906212977649268</v>
+      </c>
+      <c r="C7">
+        <v>4.5026463341560907</v>
+      </c>
+      <c r="D7">
+        <v>5.1802880575557886</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3.625695495129722</v>
+      </c>
+      <c r="C8">
+        <v>4.3673834546043793</v>
+      </c>
+      <c r="D8">
+        <v>5.2129680182264417</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>3.755598496599259</v>
+      </c>
+      <c r="C9">
+        <v>4.2794692458055676</v>
+      </c>
+      <c r="D9">
+        <v>4.8542555012864144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>4.1124313766850262</v>
+      </c>
+      <c r="C10">
+        <v>4.7609850396281344</v>
+      </c>
+      <c r="D10">
+        <v>5.4804491124303683</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3.3628562356916709</v>
+      </c>
+      <c r="C11">
+        <v>3.806741249265726</v>
+      </c>
+      <c r="D11">
+        <v>4.2900080971594914</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4.0732022763899103</v>
+      </c>
+      <c r="C12">
+        <v>4.5295125086354053</v>
+      </c>
+      <c r="D12">
+        <v>5.0206652452180141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3.633749656974639</v>
+      </c>
+      <c r="C13">
+        <v>4.2804443810183432</v>
+      </c>
+      <c r="D13">
+        <v>5.0053758518371527</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73.116229681152959</v>
+      </c>
+      <c r="C2">
+        <v>239.52058596241361</v>
+      </c>
+      <c r="D2">
+        <v>590.39567111267365</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>50.021058071505429</v>
+      </c>
+      <c r="C3">
+        <v>77.865920391588034</v>
+      </c>
+      <c r="D3">
+        <v>115.7264873500193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>43.415015190690497</v>
+      </c>
+      <c r="C4">
+        <v>62.215577709195777</v>
+      </c>
+      <c r="D4">
+        <v>86.408822075991424</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>106.1253037824109</v>
+      </c>
+      <c r="C5">
+        <v>325.55057278420111</v>
+      </c>
+      <c r="D5">
+        <v>739.41661647623175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>51.784156683488746</v>
+      </c>
+      <c r="C6">
+        <v>92.962666797124356</v>
+      </c>
+      <c r="D6">
+        <v>154.51166534056981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>89.243780280890945</v>
+      </c>
+      <c r="C7">
+        <v>148.2719750162309</v>
+      </c>
+      <c r="D7">
+        <v>231.83651800479961</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>42.54213204280186</v>
+      </c>
+      <c r="C8">
+        <v>64.983602238342201</v>
+      </c>
+      <c r="D8">
+        <v>95.160104012131143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>47.953870511521139</v>
+      </c>
+      <c r="C9">
+        <v>68.686255769599356</v>
+      </c>
+      <c r="D9">
+        <v>95.369668719182769</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>59.594567620334914</v>
+      </c>
+      <c r="C10">
+        <v>101.39940377149179</v>
+      </c>
+      <c r="D10">
+        <v>161.569319096323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>32.794646160172192</v>
+      </c>
+      <c r="C11">
+        <v>42.001442783120922</v>
+      </c>
+      <c r="D11">
+        <v>52.980042973996731</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>47.401426423882747</v>
+      </c>
+      <c r="C12">
+        <v>61.041192922172662</v>
+      </c>
+      <c r="D12">
+        <v>77.35187389791038</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>41.084166489478122</v>
+      </c>
+      <c r="C13">
+        <v>52.243171072892487</v>
+      </c>
+      <c r="D13">
+        <v>65.479392569361977</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>3.6539547369029681</v>
+      </c>
+      <c r="C14">
+        <v>4.5651238235518354</v>
+      </c>
+      <c r="D14">
+        <v>5.6326695213435807</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2.9713208127944499</v>
+      </c>
+      <c r="C15">
+        <v>3.753048655222063</v>
+      </c>
+      <c r="D15">
+        <v>4.6766960355313394</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>3.187781843134013</v>
+      </c>
+      <c r="C16">
+        <v>3.7140533193682539</v>
+      </c>
+      <c r="D16">
+        <v>4.3010811318398394</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>3.9053567560470621</v>
+      </c>
+      <c r="C17">
+        <v>4.8761029985807944</v>
+      </c>
+      <c r="D17">
+        <v>6.0131077723401081</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>3.5279196661446002</v>
+      </c>
+      <c r="C18">
+        <v>4.2379337982817953</v>
+      </c>
+      <c r="D18">
+        <v>5.0451646429022077</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>3.8906212977649268</v>
+      </c>
+      <c r="C19">
+        <v>4.5026463341560907</v>
+      </c>
+      <c r="D19">
+        <v>5.1802880575557886</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>3.625695495129722</v>
+      </c>
+      <c r="C20">
+        <v>4.3673834546043793</v>
+      </c>
+      <c r="D20">
+        <v>5.2129680182264417</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3.755598496599259</v>
+      </c>
+      <c r="C21">
+        <v>4.2794692458055676</v>
+      </c>
+      <c r="D21">
+        <v>4.8542555012864144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>4.1124313766850262</v>
+      </c>
+      <c r="C22">
+        <v>4.7609850396281344</v>
+      </c>
+      <c r="D22">
+        <v>5.4804491124303683</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3.3628562356916709</v>
+      </c>
+      <c r="C23">
+        <v>3.806741249265726</v>
+      </c>
+      <c r="D23">
+        <v>4.2900080971594914</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>4.0732022763899103</v>
+      </c>
+      <c r="C24">
+        <v>4.5295125086354053</v>
+      </c>
+      <c r="D24">
+        <v>5.0206652452180141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>3.633749656974639</v>
+      </c>
+      <c r="C25">
+        <v>4.2804443810183432</v>
+      </c>
+      <c r="D25">
+        <v>5.0053758518371527</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>15.679847067607771</v>
+      </c>
+      <c r="C26">
+        <v>41.467135868170587</v>
+      </c>
+      <c r="D26">
+        <v>90.878295484218867</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>17.101108235817708</v>
+      </c>
+      <c r="C27">
+        <v>25.87636380199308</v>
+      </c>
+      <c r="D27">
+        <v>37.618245116988419</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>13.55588743997445</v>
+      </c>
+      <c r="C28">
+        <v>22.391111141843499</v>
+      </c>
+      <c r="D28">
+        <v>34.928108533130157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>33.595496274219961</v>
+      </c>
+      <c r="C29">
+        <v>62.730371037559131</v>
+      </c>
+      <c r="D29">
+        <v>107.50426709886921</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>22.843137087530891</v>
+      </c>
+      <c r="C30">
+        <v>35.342832130551997</v>
+      </c>
+      <c r="D30">
+        <v>52.312208711946482</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>29.382880068085679</v>
+      </c>
+      <c r="C31">
+        <v>40.335566515403777</v>
+      </c>
+      <c r="D31">
+        <v>54.039460347615403</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>20.22111169364717</v>
+      </c>
+      <c r="C32">
+        <v>25.539057521054652</v>
+      </c>
+      <c r="D32">
+        <v>31.82574436404019</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>25.584272219669579</v>
+      </c>
+      <c r="C33">
+        <v>33.001870917028988</v>
+      </c>
+      <c r="D33">
+        <v>41.90139302558724</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>26.325218170252999</v>
+      </c>
+      <c r="C34">
+        <v>35.813647411526169</v>
+      </c>
+      <c r="D34">
+        <v>47.625450717317591</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>18.204604390958082</v>
+      </c>
+      <c r="C35">
+        <v>22.231209922110239</v>
+      </c>
+      <c r="D35">
+        <v>26.879873770560419</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>20.837898320118679</v>
+      </c>
+      <c r="C36">
+        <v>24.231054640449649</v>
+      </c>
+      <c r="D36">
+        <v>28.014268464883781</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>19.106883634961061</v>
+      </c>
+      <c r="C37">
+        <v>22.32140991191142</v>
+      </c>
+      <c r="D37">
+        <v>25.917309576438122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>5.6412141696362603</v>
+      </c>
+      <c r="C38">
+        <v>20.606542253488488</v>
+      </c>
+      <c r="D38">
+        <v>52.041243606901055</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>8.0564180343259792</v>
+      </c>
+      <c r="C39">
+        <v>10.900267017015709</v>
+      </c>
+      <c r="D39">
+        <v>14.40380076663371</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>9.1155326869297859</v>
+      </c>
+      <c r="C40">
+        <v>10.885054329773579</v>
+      </c>
+      <c r="D40">
+        <v>12.88088330460541</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>3.4375547870366199</v>
+      </c>
+      <c r="C41">
+        <v>7.7640457166225731</v>
+      </c>
+      <c r="D41">
+        <v>14.816664673390729</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>7.7699389580900711</v>
+      </c>
+      <c r="C42">
+        <v>8.3615574419340852</v>
+      </c>
+      <c r="D42">
+        <v>8.9745741932132255</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>7.8545099198220294</v>
+      </c>
+      <c r="C43">
+        <v>11.536843917213231</v>
+      </c>
+      <c r="D43">
+        <v>16.31704187970432</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>7.5482307655147247</v>
+      </c>
+      <c r="C44">
+        <v>10.810969838839929</v>
+      </c>
+      <c r="D44">
+        <v>15.00460351188946</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>6.0614103350149842</v>
+      </c>
+      <c r="C45">
+        <v>7.781825951627817</v>
+      </c>
+      <c r="D45">
+        <v>9.8313309749828441</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>6.1233476215764044</v>
+      </c>
+      <c r="C46">
+        <v>8.7759970896749095</v>
+      </c>
+      <c r="D46">
+        <v>12.17825156070624</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5.0513225710284386</v>
+      </c>
+      <c r="C47">
+        <v>5.9094502892132494</v>
+      </c>
+      <c r="D47">
+        <v>6.8677875692854657</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>6.0058589395828204</v>
+      </c>
+      <c r="C48">
+        <v>7.5024724707993267</v>
+      </c>
+      <c r="D48">
+        <v>9.2521543302282545</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>5.3184107018913043</v>
+      </c>
+      <c r="C49">
+        <v>6.5238802217849319</v>
+      </c>
+      <c r="D49">
+        <v>7.9164692901961633</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>